--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_53.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,558 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[('0:00:04.860000', '0:00:07.560000'), ('0:00:02.360000', '0:00:05.680000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:08.220000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.26, 45.66)]</t>
+          <t>[('0:00:06.800000', '0:00:12.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:18.640000', '0:00:28.900000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1120923913043478</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['E:7', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[('0:00:42.620000', '0:00:45.060000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09235074626865672</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'E', 'A', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Eb', 'G/5', 'C', 'E:min/5']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(46.529251, 54.971273)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.122845, 12.503707)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['D', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[['D/5', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:47.804648', '0:00:55.548503')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:02.291000', '0:01:08.376000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:24.940000'), ('0:01:05.060000', '0:01:28.500000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>isophonics_261</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1762820512820513</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'D:7', 'G:min', 'C:min']]</t>
-        </is>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.46875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#']]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(59.437845, 66.566371)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(25.24, 35.76)]</t>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:08.300000', '0:00:12.960000'), ('0:00:00.780000', '0:00:05.260000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1902173913043478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
+          <t>[['Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[('0:00:20.130022', '0:00:25.095075')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:32.351768', '0:00:40.095623')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(0.38, 21.84)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.64, 23.8)]</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1023,182 +1048,136 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:47.100000', '0:01:51.480000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.4, 44.08)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.9, 56.28)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.88, 45.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
